--- a/geometryVelocity.xlsx
+++ b/geometryVelocity.xlsx
@@ -8,17 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alessio\Desktop\Acoustics\Project Course\ESM-based-NAH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87AC9A0F-8132-4AF2-8EE8-3F45854D5CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF087D04-48EA-45CB-9CEF-2236902E05CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -42,9 +51,6 @@
     <t>8.9</t>
   </si>
   <si>
-    <t>center point [cm]</t>
-  </si>
-  <si>
     <t>5.75</t>
   </si>
   <si>
@@ -148,6 +154,9 @@
   </si>
   <si>
     <t>4.6</t>
+  </si>
+  <si>
+    <t>center point [inches]</t>
   </si>
 </sst>
 </file>
@@ -215,9 +224,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -231,6 +237,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -514,7 +523,7 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="I3" sqref="I3:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,242 +532,242 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="A1" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="G1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
       <c r="J1" s="1"/>
-      <c r="K1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
+      <c r="K1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="1"/>
+      <c r="K2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>5</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="4">
         <v>8</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3">
-        <v>5</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L3" s="5">
-        <v>8</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="N3" s="5">
-        <v>0</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="P3" s="5">
+      <c r="M3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="4">
+        <v>0</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" s="4">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>9</v>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="7" t="s">
+      <c r="F4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="L4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="M4" s="5">
+      <c r="M4" s="4">
         <v>4</v>
       </c>
-      <c r="N4" s="5">
-        <v>0</v>
-      </c>
-      <c r="O4" s="5">
+      <c r="N4" s="4">
+        <v>0</v>
+      </c>
+      <c r="O4" s="4">
         <v>5</v>
       </c>
-      <c r="P4" s="5">
+      <c r="P4" s="4">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>9</v>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3">
+      <c r="F5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
         <v>4</v>
       </c>
-      <c r="J5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="N5" s="5">
-        <v>0</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="P5" s="5" t="s">
+      <c r="J5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="4" t="s">
         <v>38</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" s="4">
+        <v>0</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="3">
+      <c r="F6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="2">
         <v>4</v>
       </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>30</v>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -769,29 +778,29 @@
       <c r="P6" s="1"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3">
+      <c r="F7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
         <v>5</v>
       </c>
       <c r="J7" s="1"/>
@@ -808,21 +817,21 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="3">
+      <c r="F8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="2">
         <v>5</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>26</v>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -837,7 +846,7 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -857,5 +866,6 @@
     <mergeCell ref="K1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/geometryVelocity.xlsx
+++ b/geometryVelocity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alessio\Desktop\Acoustics\Project Course\ESM-based-NAH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF087D04-48EA-45CB-9CEF-2236902E05CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D87E2CD-46A8-4961-90AF-03A55454DAB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="7800" windowHeight="8940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>bottom</t>
   </si>
@@ -48,36 +48,6 @@
     <t>right</t>
   </si>
   <si>
-    <t>8.9</t>
-  </si>
-  <si>
-    <t>5.75</t>
-  </si>
-  <si>
-    <t>5.35</t>
-  </si>
-  <si>
-    <t>8.5</t>
-  </si>
-  <si>
-    <t>5.7</t>
-  </si>
-  <si>
-    <t>8.4</t>
-  </si>
-  <si>
-    <t>8.2</t>
-  </si>
-  <si>
-    <t>8.3</t>
-  </si>
-  <si>
-    <t>5.9</t>
-  </si>
-  <si>
-    <t>5.8</t>
-  </si>
-  <si>
     <t>x = 0</t>
   </si>
   <si>
@@ -108,24 +78,6 @@
     <t xml:space="preserve">dx = distance from the central line </t>
   </si>
   <si>
-    <t>5.1</t>
-  </si>
-  <si>
-    <t>4.9</t>
-  </si>
-  <si>
-    <t>4.8</t>
-  </si>
-  <si>
-    <t>4.1</t>
-  </si>
-  <si>
-    <t>4.7</t>
-  </si>
-  <si>
-    <t>4.2</t>
-  </si>
-  <si>
     <t>dy = distance from the central line</t>
   </si>
   <si>
@@ -141,22 +93,10 @@
     <t>(horizontal central line)</t>
   </si>
   <si>
-    <t>12.1</t>
-  </si>
-  <si>
-    <t>11.9</t>
-  </si>
-  <si>
-    <t>7.9</t>
-  </si>
-  <si>
-    <t>8.1</t>
-  </si>
-  <si>
-    <t>4.6</t>
-  </si>
-  <si>
     <t>center point [inches]</t>
+  </si>
+  <si>
+    <t>8,,3</t>
   </si>
 </sst>
 </file>
@@ -219,7 +159,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -238,6 +178,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -523,7 +466,7 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:I8"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,7 +476,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -541,13 +484,13 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
       <c r="J1" s="1"/>
       <c r="K1" s="7" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="L1" s="7"/>
       <c r="M1" s="7"/>
@@ -571,53 +514,53 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="3" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>5</v>
+      <c r="A3" s="2">
+        <v>8.9</v>
+      </c>
+      <c r="B3" s="2">
+        <v>5.35</v>
+      </c>
+      <c r="C3" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="D3" s="2">
+        <v>5.75</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>24</v>
+        <v>7</v>
+      </c>
+      <c r="G3" s="2">
+        <v>5.0999999999999996</v>
       </c>
       <c r="H3" s="2">
         <v>0</v>
@@ -626,61 +569,61 @@
         <v>5</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>35</v>
+        <v>5</v>
+      </c>
+      <c r="K3" s="6">
+        <v>12.1</v>
       </c>
       <c r="L3" s="4">
         <v>8</v>
       </c>
-      <c r="M3" s="4" t="s">
-        <v>27</v>
+      <c r="M3" s="4">
+        <v>4.0999999999999996</v>
       </c>
       <c r="N3" s="4">
         <v>0</v>
       </c>
-      <c r="O3" s="4" t="s">
-        <v>39</v>
+      <c r="O3" s="4">
+        <v>4.5999999999999996</v>
       </c>
       <c r="P3" s="4">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>8</v>
+      <c r="A4" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="B4" s="2">
+        <v>5.7</v>
+      </c>
+      <c r="C4" s="2">
+        <v>8.4</v>
+      </c>
+      <c r="D4" s="2">
+        <v>5.7</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>26</v>
+        <v>8</v>
+      </c>
+      <c r="G4" s="2">
+        <v>4.8</v>
       </c>
       <c r="H4" s="2">
         <v>0</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>26</v>
+      <c r="I4" s="2">
+        <v>4.8</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>37</v>
+        <v>4</v>
+      </c>
+      <c r="K4" s="6">
+        <v>11.9</v>
+      </c>
+      <c r="L4" s="4">
+        <v>7.9</v>
       </c>
       <c r="M4" s="4">
         <v>4</v>
@@ -696,24 +639,24 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>8</v>
+      <c r="A5" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="B5" s="2">
+        <v>5.7</v>
+      </c>
+      <c r="C5" s="2">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D5" s="2">
+        <v>5.7</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
+      </c>
+      <c r="G5" s="2">
+        <v>4.0999999999999996</v>
       </c>
       <c r="H5" s="2">
         <v>0</v>
@@ -722,43 +665,43 @@
         <v>4</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>27</v>
+        <v>6</v>
+      </c>
+      <c r="K5" s="6">
+        <v>12.1</v>
+      </c>
+      <c r="L5" s="4">
+        <v>8.1</v>
+      </c>
+      <c r="M5" s="4">
+        <v>4.0999999999999996</v>
       </c>
       <c r="N5" s="4">
         <v>0</v>
       </c>
-      <c r="O5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>37</v>
+      <c r="O5" s="4">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="P5" s="4">
+        <v>7.9</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>13</v>
+      <c r="A6" s="2">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="B6" s="2">
+        <v>5.9</v>
+      </c>
+      <c r="C6" s="2">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D6" s="2">
+        <v>5.8</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G6" s="2">
         <v>4</v>
@@ -766,8 +709,8 @@
       <c r="H6" s="2">
         <v>0</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>29</v>
+      <c r="I6" s="2">
+        <v>4.2</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -778,24 +721,24 @@
       <c r="P6" s="1"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>12</v>
+      <c r="A7" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>5.9</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
+      </c>
+      <c r="D7" s="2">
+        <v>5.8</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>28</v>
+        <v>11</v>
+      </c>
+      <c r="G7" s="2">
+        <v>4.7</v>
       </c>
       <c r="H7" s="2">
         <v>0</v>
@@ -812,13 +755,25 @@
       <c r="P7" s="1"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="A8" s="8">
+        <f>AVERAGE(A3:A7)*25.4</f>
+        <v>216.91600000000003</v>
+      </c>
+      <c r="B8" s="8">
+        <f t="shared" ref="B8:D8" si="0">AVERAGE(B3:B7)*25.4</f>
+        <v>145.03399999999996</v>
+      </c>
+      <c r="C8" s="8">
+        <f t="shared" si="0"/>
+        <v>211.45499999999998</v>
+      </c>
+      <c r="D8" s="8">
+        <f t="shared" si="0"/>
+        <v>146.04999999999998</v>
+      </c>
       <c r="E8" s="1"/>
       <c r="F8" s="3" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G8" s="2">
         <v>5</v>
@@ -826,12 +781,12 @@
       <c r="H8" s="2">
         <v>0</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>25</v>
+      <c r="I8" s="2">
+        <v>4.9000000000000004</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -846,7 +801,7 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>

--- a/geometryVelocity.xlsx
+++ b/geometryVelocity.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alessio\Desktop\Acoustics\Project Course\ESM-based-NAH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utente\Documents\GitHub\ESM-based-NAH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D87E2CD-46A8-4961-90AF-03A55454DAB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="7800" windowHeight="8940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="7800" windowHeight="8940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>bottom</t>
   </si>
@@ -60,12 +59,6 @@
     <t>y = -6</t>
   </si>
   <si>
-    <t>y = -4</t>
-  </si>
-  <si>
-    <t>y = -2</t>
-  </si>
-  <si>
     <t>y = 0</t>
   </si>
   <si>
@@ -97,12 +90,18 @@
   </si>
   <si>
     <t>8,,3</t>
+  </si>
+  <si>
+    <t>YY</t>
+  </si>
+  <si>
+    <t>XX</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -159,7 +158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -183,9 +182,12 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -462,11 +464,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="J2" sqref="J2:P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,26 +477,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="A1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
+      <c r="G1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
       <c r="J1" s="1"/>
-      <c r="K1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="K1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
@@ -513,33 +515,24 @@
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="J2" s="1"/>
       <c r="K2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P2" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -556,9 +549,6 @@
         <v>5.75</v>
       </c>
       <c r="E3" s="1"/>
-      <c r="F3" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="G3" s="2">
         <v>5.0999999999999996</v>
       </c>
@@ -604,9 +594,6 @@
         <v>5.7</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G4" s="2">
         <v>4.8</v>
       </c>
@@ -652,9 +639,6 @@
         <v>5.7</v>
       </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="G5" s="2">
         <v>4.0999999999999996</v>
       </c>
@@ -700,9 +684,6 @@
         <v>5.8</v>
       </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="G6" s="2">
         <v>4</v>
       </c>
@@ -728,15 +709,12 @@
         <v>5.9</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D7" s="2">
         <v>5.8</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="G7" s="2">
         <v>4.7</v>
       </c>
@@ -772,9 +750,6 @@
         <v>146.04999999999998</v>
       </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="G8" s="2">
         <v>5</v>
       </c>
@@ -786,7 +761,7 @@
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -801,7 +776,7 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -814,6 +789,141 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="3">
+        <f>+-2</f>
+        <v>-2</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3">
+        <v>2</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" s="3">
+        <f>-6</f>
+        <v>-6</v>
+      </c>
+      <c r="L13" s="7">
+        <f t="shared" ref="L13:M13" si="1">-6</f>
+        <v>-6</v>
+      </c>
+      <c r="M13" s="7">
+        <f t="shared" si="1"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G14" s="7">
+        <f t="shared" ref="G14:G18" si="2">+-2</f>
+        <v>-2</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>2</v>
+      </c>
+      <c r="K14" s="3">
+        <v>-4</v>
+      </c>
+      <c r="L14" s="7">
+        <v>-4</v>
+      </c>
+      <c r="M14" s="7">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G15" s="7">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="H15" s="7">
+        <v>0</v>
+      </c>
+      <c r="I15" s="7">
+        <v>2</v>
+      </c>
+      <c r="K15" s="3">
+        <v>-2</v>
+      </c>
+      <c r="L15" s="7">
+        <v>-2</v>
+      </c>
+      <c r="M15" s="7">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G16" s="7">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>2</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0</v>
+      </c>
+      <c r="L16" s="7">
+        <v>0</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G17" s="7">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>2</v>
+      </c>
+      <c r="K17" s="3">
+        <v>2</v>
+      </c>
+      <c r="L17" s="7">
+        <v>2</v>
+      </c>
+      <c r="M17" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G18" s="7">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7">
+        <v>2</v>
+      </c>
+      <c r="K18" s="3">
+        <v>4</v>
+      </c>
+      <c r="L18" s="7">
+        <v>4</v>
+      </c>
+      <c r="M18" s="7">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:D1"/>

--- a/geometryVelocity.xlsx
+++ b/geometryVelocity.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utente\Documents\GitHub\ESM-based-NAH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utente\Documents\GitHub\ESM-based-NAH-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>bottom</t>
   </si>
@@ -87,9 +87,6 @@
   </si>
   <si>
     <t>center point [inches]</t>
-  </si>
-  <si>
-    <t>8,,3</t>
   </si>
   <si>
     <t>YY</t>
@@ -468,7 +465,7 @@
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:P5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -708,8 +705,8 @@
       <c r="B7" s="2">
         <v>5.9</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>18</v>
+      <c r="C7" s="2">
+        <v>8.3000000000000007</v>
       </c>
       <c r="D7" s="2">
         <v>5.8</v>
@@ -743,7 +740,7 @@
       </c>
       <c r="C8" s="8">
         <f t="shared" si="0"/>
-        <v>211.45499999999998</v>
+        <v>211.32799999999995</v>
       </c>
       <c r="D8" s="8">
         <f t="shared" si="0"/>
@@ -791,7 +788,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G13" s="3">
         <f>+-2</f>
@@ -804,7 +801,7 @@
         <v>2</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K13" s="3">
         <f>-6</f>

--- a/geometryVelocity.xlsx
+++ b/geometryVelocity.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
   <si>
     <t>bottom</t>
   </si>
@@ -80,12 +80,6 @@
     <t>y=-2</t>
   </si>
   <si>
-    <t>(vertical central line)</t>
-  </si>
-  <si>
-    <t>(horizontal central line)</t>
-  </si>
-  <si>
     <t>center point [inches]</t>
   </si>
   <si>
@@ -93,6 +87,30 @@
   </si>
   <si>
     <t>XX</t>
+  </si>
+  <si>
+    <t>x = -3</t>
+  </si>
+  <si>
+    <t>x = 3</t>
+  </si>
+  <si>
+    <t>y = 1</t>
+  </si>
+  <si>
+    <t>y = -1</t>
+  </si>
+  <si>
+    <t>x = 1</t>
+  </si>
+  <si>
+    <t>x = -1</t>
+  </si>
+  <si>
+    <t>y = -5</t>
+  </si>
+  <si>
+    <t>y = -8</t>
   </si>
 </sst>
 </file>
@@ -108,7 +126,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -124,6 +142,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -155,7 +179,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -172,7 +196,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -180,6 +203,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -462,42 +498,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P18"/>
+  <dimension ref="A1:V23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="16" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="9" t="s">
+      <c r="J1" s="8"/>
+      <c r="O1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -512,420 +546,942 @@
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="3" t="s">
+      <c r="G2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" s="1"/>
+      <c r="P2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>18.5</v>
+      </c>
+      <c r="B3" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="C3" s="2">
+        <v>18.2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>5.6</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="12">
+        <v>0</v>
+      </c>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="O3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="12">
+        <v>-13.6</v>
+      </c>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="B4" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="C4" s="2">
+        <v>18.3</v>
+      </c>
+      <c r="D4" s="2">
+        <v>5.8</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>8.9</v>
-      </c>
-      <c r="B3" s="2">
-        <v>5.35</v>
-      </c>
-      <c r="C3" s="2">
-        <v>8.5</v>
-      </c>
-      <c r="D3" s="2">
-        <v>5.75</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="G3" s="2">
+      <c r="G4" s="4"/>
+      <c r="H4" s="12">
         <v>5.0999999999999996</v>
       </c>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2">
+      <c r="I4" s="4"/>
+      <c r="J4" s="12">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4"/>
+      <c r="L4" s="12">
         <v>5</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K3" s="6">
+      <c r="M4" s="4"/>
+      <c r="O4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="12">
         <v>12.1</v>
       </c>
-      <c r="L3" s="4">
-        <v>8</v>
-      </c>
-      <c r="M3" s="4">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="N3" s="4">
-        <v>0</v>
-      </c>
-      <c r="O3" s="4">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="P3" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>8.5</v>
-      </c>
-      <c r="B4" s="2">
+      <c r="R4" s="4"/>
+      <c r="S4" s="12">
+        <v>11.9</v>
+      </c>
+      <c r="T4" s="4"/>
+      <c r="U4" s="12">
+        <v>12.1</v>
+      </c>
+      <c r="V4" s="4"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="B5" s="2">
+        <v>5.8</v>
+      </c>
+      <c r="C5" s="2">
+        <v>18.3</v>
+      </c>
+      <c r="D5" s="2">
+        <v>6</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="12">
+        <v>-7.2</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="12">
+        <v>7.2</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="P5" s="12">
+        <v>-10.199999999999999</v>
+      </c>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="12">
+        <v>-9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>18.2</v>
+      </c>
+      <c r="B6" s="2">
         <v>5.7</v>
       </c>
-      <c r="C4" s="2">
-        <v>8.4</v>
-      </c>
-      <c r="D4" s="2">
-        <v>5.7</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="G4" s="2">
-        <v>4.8</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2">
-        <v>4.8</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K4" s="6">
-        <v>11.9</v>
-      </c>
-      <c r="L4" s="4">
-        <v>7.9</v>
-      </c>
-      <c r="M4" s="4">
-        <v>4</v>
-      </c>
-      <c r="N4" s="4">
-        <v>0</v>
-      </c>
-      <c r="O4" s="4">
-        <v>5</v>
-      </c>
-      <c r="P4" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>8.5</v>
-      </c>
-      <c r="B5" s="2">
-        <v>5.7</v>
-      </c>
-      <c r="C5" s="2">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="D5" s="2">
-        <v>5.7</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="G5" s="2">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
-        <v>4</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K5" s="6">
-        <v>12.1</v>
-      </c>
-      <c r="L5" s="4">
-        <v>8.1</v>
-      </c>
-      <c r="M5" s="4">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="N5" s="4">
-        <v>0</v>
-      </c>
-      <c r="O5" s="4">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="P5" s="4">
-        <v>7.9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="B6" s="2">
-        <v>5.9</v>
-      </c>
       <c r="C6" s="2">
-        <v>8.1999999999999993</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="D6" s="2">
         <v>5.8</v>
       </c>
       <c r="E6" s="1"/>
-      <c r="G6" s="2">
+      <c r="F6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="12">
+        <v>4.8</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="12">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4"/>
+      <c r="L6" s="12">
+        <v>4.8</v>
+      </c>
+      <c r="M6" s="4"/>
+      <c r="O6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="12">
+        <v>8</v>
+      </c>
+      <c r="R6" s="4"/>
+      <c r="S6" s="12">
+        <v>7.9</v>
+      </c>
+      <c r="T6" s="4"/>
+      <c r="U6" s="12">
+        <v>8.1</v>
+      </c>
+      <c r="V6" s="2"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
+        <f>SUM(A3:A6)/4</f>
+        <v>18.425000000000001</v>
+      </c>
+      <c r="B7" s="13">
+        <f t="shared" ref="B7:D7" si="0">SUM(B3:B6)/4</f>
+        <v>5.6</v>
+      </c>
+      <c r="C7" s="13">
+        <f t="shared" si="0"/>
+        <v>18.299999999999997</v>
+      </c>
+      <c r="D7" s="13">
+        <f t="shared" si="0"/>
+        <v>5.8</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="12">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="12">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4"/>
+      <c r="L7" s="12">
         <v>4</v>
       </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2">
-        <v>4.2</v>
-      </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>8.5</v>
-      </c>
-      <c r="B7" s="2">
-        <v>5.9</v>
-      </c>
-      <c r="C7" s="2">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="D7" s="2">
-        <v>5.8</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="G7" s="2">
-        <v>4.7</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2">
-        <v>5</v>
-      </c>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <f>AVERAGE(A3:A7)*25.4</f>
-        <v>216.91600000000003</v>
-      </c>
-      <c r="B8" s="8">
-        <f t="shared" ref="B8:D8" si="0">AVERAGE(B3:B7)*25.4</f>
-        <v>145.03399999999996</v>
-      </c>
-      <c r="C8" s="8">
-        <f t="shared" si="0"/>
-        <v>211.32799999999995</v>
-      </c>
-      <c r="D8" s="8">
-        <f t="shared" si="0"/>
-        <v>146.04999999999998</v>
-      </c>
+      <c r="M7" s="4"/>
+      <c r="O7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="12">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="R7" s="4"/>
+      <c r="S7" s="12">
+        <v>4</v>
+      </c>
+      <c r="T7" s="4"/>
+      <c r="U7" s="12">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="V7" s="2"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
       <c r="E8" s="1"/>
-      <c r="G8" s="2">
-        <v>5</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="12">
+        <v>-2.6</v>
+      </c>
+      <c r="J8" s="4"/>
+      <c r="K8" s="12">
+        <v>2.7</v>
+      </c>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="O8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="12">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="S8" s="4"/>
+      <c r="T8" s="12">
+        <v>-2.7</v>
+      </c>
+      <c r="U8" s="4"/>
+      <c r="V8" s="2"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="3">
+      <c r="F9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="12">
+        <v>4</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="12">
+        <v>0</v>
+      </c>
+      <c r="K9" s="4"/>
+      <c r="L9" s="12">
+        <v>4.2</v>
+      </c>
+      <c r="M9" s="4"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="12">
+        <v>0</v>
+      </c>
+      <c r="R9" s="4"/>
+      <c r="S9" s="12">
+        <v>0</v>
+      </c>
+      <c r="T9" s="4"/>
+      <c r="U9" s="12">
+        <v>0</v>
+      </c>
+      <c r="V9" s="2"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="F10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="12">
+        <v>-2.8</v>
+      </c>
+      <c r="J10" s="4"/>
+      <c r="K10" s="12">
+        <v>2.7</v>
+      </c>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="12">
+        <v>2.6</v>
+      </c>
+      <c r="S10" s="4"/>
+      <c r="T10" s="12">
+        <v>2.8</v>
+      </c>
+      <c r="U10" s="4"/>
+      <c r="V10" s="2"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="F11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="12">
+        <v>4.7</v>
+      </c>
+      <c r="I11" s="4"/>
+      <c r="J11" s="12">
+        <v>0</v>
+      </c>
+      <c r="K11" s="4"/>
+      <c r="L11" s="12">
+        <v>5</v>
+      </c>
+      <c r="M11" s="4"/>
+      <c r="O11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="12">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="R11" s="4"/>
+      <c r="S11" s="12">
+        <v>5</v>
+      </c>
+      <c r="T11" s="4"/>
+      <c r="U11" s="12">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="V11" s="2"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="F12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="12">
+        <v>-7.7</v>
+      </c>
+      <c r="H12" s="12">
+        <v>5</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="12">
+        <v>0</v>
+      </c>
+      <c r="K12" s="4"/>
+      <c r="L12" s="12">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="M12" s="12">
+        <v>7.6</v>
+      </c>
+      <c r="O12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="P12" s="12">
+        <v>12.3</v>
+      </c>
+      <c r="Q12" s="12">
+        <v>8</v>
+      </c>
+      <c r="R12" s="4"/>
+      <c r="S12" s="12">
+        <v>8</v>
+      </c>
+      <c r="T12" s="4"/>
+      <c r="U12" s="12">
+        <v>7.9</v>
+      </c>
+      <c r="V12" s="12">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="F14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="8">
+        <v>-3</v>
+      </c>
+      <c r="H14" s="3">
         <f>+-2</f>
         <v>-2</v>
       </c>
-      <c r="H13" s="3">
-        <v>0</v>
-      </c>
-      <c r="I13" s="3">
-        <v>2</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K13" s="3">
+      <c r="I14" s="8">
+        <f>-1</f>
+        <v>-1</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="8">
+        <v>1</v>
+      </c>
+      <c r="L14" s="3">
+        <v>2</v>
+      </c>
+      <c r="M14" s="8">
+        <v>3</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P14" s="8">
+        <f>-8</f>
+        <v>-8</v>
+      </c>
+      <c r="Q14" s="8">
+        <f t="shared" ref="Q14:V14" si="1">-8</f>
+        <v>-8</v>
+      </c>
+      <c r="R14" s="8">
+        <f t="shared" si="1"/>
+        <v>-8</v>
+      </c>
+      <c r="S14" s="8">
+        <f t="shared" si="1"/>
+        <v>-8</v>
+      </c>
+      <c r="T14" s="8">
+        <f t="shared" si="1"/>
+        <v>-8</v>
+      </c>
+      <c r="U14" s="8">
+        <f t="shared" si="1"/>
+        <v>-8</v>
+      </c>
+      <c r="V14" s="8">
+        <f t="shared" si="1"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="G15" s="8">
+        <v>-2</v>
+      </c>
+      <c r="H15" s="8">
+        <f t="shared" ref="H15:H23" si="2">+-2</f>
+        <v>-2</v>
+      </c>
+      <c r="I15" s="8">
+        <f t="shared" ref="I15:I23" si="3">-1</f>
+        <v>-1</v>
+      </c>
+      <c r="J15" s="8">
+        <v>0</v>
+      </c>
+      <c r="K15" s="8">
+        <v>1</v>
+      </c>
+      <c r="L15" s="8">
+        <v>2</v>
+      </c>
+      <c r="M15" s="8">
+        <v>3</v>
+      </c>
+      <c r="P15" s="3">
         <f>-6</f>
         <v>-6</v>
       </c>
-      <c r="L13" s="7">
-        <f t="shared" ref="L13:M13" si="1">-6</f>
+      <c r="Q15" s="6">
+        <f t="shared" ref="Q15:V15" si="4">-6</f>
         <v>-6</v>
       </c>
-      <c r="M13" s="7">
-        <f t="shared" si="1"/>
+      <c r="R15" s="6">
+        <f t="shared" si="4"/>
         <v>-6</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G14" s="7">
-        <f t="shared" ref="G14:G18" si="2">+-2</f>
-        <v>-2</v>
-      </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>2</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="S15" s="8">
+        <f t="shared" si="4"/>
+        <v>-6</v>
+      </c>
+      <c r="T15" s="8">
+        <f t="shared" si="4"/>
+        <v>-6</v>
+      </c>
+      <c r="U15" s="8">
+        <f t="shared" si="4"/>
+        <v>-6</v>
+      </c>
+      <c r="V15" s="8">
+        <f t="shared" si="4"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="G16" s="8">
+        <v>-1</v>
+      </c>
+      <c r="H16" s="8">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="I16" s="8">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="J16" s="8">
+        <v>0</v>
+      </c>
+      <c r="K16" s="8">
+        <v>1</v>
+      </c>
+      <c r="L16" s="8">
+        <v>2</v>
+      </c>
+      <c r="M16" s="8">
+        <v>3</v>
+      </c>
+      <c r="P16" s="3">
         <v>-4</v>
       </c>
-      <c r="L14" s="7">
+      <c r="Q16" s="6">
         <v>-4</v>
       </c>
-      <c r="M14" s="7">
+      <c r="R16" s="6">
         <v>-4</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G15" s="7">
+      <c r="S16" s="8">
+        <v>-4</v>
+      </c>
+      <c r="T16" s="8">
+        <v>-4</v>
+      </c>
+      <c r="U16" s="8">
+        <v>-4</v>
+      </c>
+      <c r="V16" s="8">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="17" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="G17" s="8">
+        <v>0</v>
+      </c>
+      <c r="H17" s="8">
         <f t="shared" si="2"/>
         <v>-2</v>
       </c>
-      <c r="H15" s="7">
-        <v>0</v>
-      </c>
-      <c r="I15" s="7">
-        <v>2</v>
-      </c>
-      <c r="K15" s="3">
-        <v>-2</v>
-      </c>
-      <c r="L15" s="7">
-        <v>-2</v>
-      </c>
-      <c r="M15" s="7">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G16" s="7">
+      <c r="I17" s="8">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="J17" s="8">
+        <v>0</v>
+      </c>
+      <c r="K17" s="8">
+        <v>1</v>
+      </c>
+      <c r="L17" s="8">
+        <v>2</v>
+      </c>
+      <c r="M17" s="8">
+        <v>3</v>
+      </c>
+      <c r="P17" s="8">
+        <v>-5</v>
+      </c>
+      <c r="Q17" s="8">
+        <v>-5</v>
+      </c>
+      <c r="R17" s="8">
+        <v>-5</v>
+      </c>
+      <c r="S17" s="8">
+        <v>-5</v>
+      </c>
+      <c r="T17" s="8">
+        <v>-5</v>
+      </c>
+      <c r="U17" s="8">
+        <v>-5</v>
+      </c>
+      <c r="V17" s="8">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="18" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="G18" s="8">
+        <v>1</v>
+      </c>
+      <c r="H18" s="8">
         <f t="shared" si="2"/>
         <v>-2</v>
       </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>2</v>
-      </c>
-      <c r="K16" s="3">
-        <v>0</v>
-      </c>
-      <c r="L16" s="7">
-        <v>0</v>
-      </c>
-      <c r="M16" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G17" s="7">
+      <c r="I18" s="8">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="J18" s="8">
+        <v>0</v>
+      </c>
+      <c r="K18" s="8">
+        <v>1</v>
+      </c>
+      <c r="L18" s="8">
+        <v>2</v>
+      </c>
+      <c r="M18" s="8">
+        <v>3</v>
+      </c>
+      <c r="P18" s="3">
+        <v>-2</v>
+      </c>
+      <c r="Q18" s="6">
+        <v>-2</v>
+      </c>
+      <c r="R18" s="6">
+        <v>-2</v>
+      </c>
+      <c r="S18" s="8">
+        <v>-2</v>
+      </c>
+      <c r="T18" s="8">
+        <v>-2</v>
+      </c>
+      <c r="U18" s="8">
+        <v>-2</v>
+      </c>
+      <c r="V18" s="8">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="19" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="G19" s="8">
+        <v>2</v>
+      </c>
+      <c r="H19" s="8">
         <f t="shared" si="2"/>
         <v>-2</v>
       </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>2</v>
-      </c>
-      <c r="K17" s="3">
-        <v>2</v>
-      </c>
-      <c r="L17" s="7">
-        <v>2</v>
-      </c>
-      <c r="M17" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G18" s="7">
+      <c r="I19" s="8">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="J19" s="8">
+        <v>0</v>
+      </c>
+      <c r="K19" s="8">
+        <v>1</v>
+      </c>
+      <c r="L19" s="8">
+        <v>2</v>
+      </c>
+      <c r="M19" s="8">
+        <v>3</v>
+      </c>
+      <c r="P19" s="8">
+        <v>-1</v>
+      </c>
+      <c r="Q19" s="8">
+        <v>-1</v>
+      </c>
+      <c r="R19" s="8">
+        <v>-1</v>
+      </c>
+      <c r="S19" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T19" s="8">
+        <v>-1</v>
+      </c>
+      <c r="U19" s="8">
+        <v>-1</v>
+      </c>
+      <c r="V19" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="G20" s="8">
+        <v>3</v>
+      </c>
+      <c r="H20" s="8">
         <f t="shared" si="2"/>
         <v>-2</v>
       </c>
-      <c r="H18" s="7">
-        <v>0</v>
-      </c>
-      <c r="I18" s="7">
-        <v>2</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="I20" s="8">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="J20" s="8">
+        <v>0</v>
+      </c>
+      <c r="K20" s="8">
+        <v>1</v>
+      </c>
+      <c r="L20" s="8">
+        <v>2</v>
+      </c>
+      <c r="M20" s="8">
+        <v>3</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="6">
+        <v>0</v>
+      </c>
+      <c r="R20" s="6">
+        <v>0</v>
+      </c>
+      <c r="S20" s="8">
+        <v>0</v>
+      </c>
+      <c r="T20" s="8">
+        <v>0</v>
+      </c>
+      <c r="U20" s="8">
+        <v>0</v>
+      </c>
+      <c r="V20" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="G21" s="8">
         <v>4</v>
       </c>
-      <c r="L18" s="7">
+      <c r="H21" s="8">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="I21" s="8">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="J21" s="8">
+        <v>0</v>
+      </c>
+      <c r="K21" s="8">
+        <v>1</v>
+      </c>
+      <c r="L21" s="8">
+        <v>2</v>
+      </c>
+      <c r="M21" s="8">
+        <v>3</v>
+      </c>
+      <c r="P21" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="8">
+        <v>1</v>
+      </c>
+      <c r="R21" s="8">
+        <v>1</v>
+      </c>
+      <c r="S21" s="8">
+        <v>1</v>
+      </c>
+      <c r="T21" s="8">
+        <v>1</v>
+      </c>
+      <c r="U21" s="8">
+        <v>1</v>
+      </c>
+      <c r="V21" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="G22" s="8">
+        <v>5</v>
+      </c>
+      <c r="H22" s="8">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="I22" s="8">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="J22" s="8">
+        <v>0</v>
+      </c>
+      <c r="K22" s="8">
+        <v>1</v>
+      </c>
+      <c r="L22" s="8">
+        <v>2</v>
+      </c>
+      <c r="M22" s="8">
+        <v>3</v>
+      </c>
+      <c r="P22" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q22" s="6">
+        <v>2</v>
+      </c>
+      <c r="R22" s="6">
+        <v>2</v>
+      </c>
+      <c r="S22" s="8">
+        <v>2</v>
+      </c>
+      <c r="T22" s="8">
+        <v>2</v>
+      </c>
+      <c r="U22" s="8">
+        <v>2</v>
+      </c>
+      <c r="V22" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="G23" s="8">
+        <v>6</v>
+      </c>
+      <c r="H23" s="8">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="I23" s="8">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="J23" s="8">
+        <v>0</v>
+      </c>
+      <c r="K23" s="8">
+        <v>1</v>
+      </c>
+      <c r="L23" s="8">
+        <v>2</v>
+      </c>
+      <c r="M23" s="8">
+        <v>3</v>
+      </c>
+      <c r="P23" s="3">
         <v>4</v>
       </c>
-      <c r="M18" s="7">
+      <c r="Q23" s="6">
         <v>4</v>
       </c>
+      <c r="R23" s="6">
+        <v>4</v>
+      </c>
+      <c r="S23" s="8">
+        <v>4</v>
+      </c>
+      <c r="T23" s="8">
+        <v>4</v>
+      </c>
+      <c r="U23" s="8">
+        <v>4</v>
+      </c>
+      <c r="V23" s="8">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:R1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/geometryVelocity.xlsx
+++ b/geometryVelocity.xlsx
@@ -500,8 +500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16:V16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,7 +623,7 @@
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
       <c r="S3" s="12">
-        <v>-13.6</v>
+        <v>13.6</v>
       </c>
       <c r="T3" s="4"/>
       <c r="U3" s="4"/>
@@ -694,7 +694,7 @@
         <v>24</v>
       </c>
       <c r="G5" s="12">
-        <v>-7.2</v>
+        <v>7.2</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -708,7 +708,7 @@
         <v>24</v>
       </c>
       <c r="P5" s="12">
-        <v>-10.199999999999999</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
@@ -716,7 +716,7 @@
       <c r="T5" s="4"/>
       <c r="U5" s="4"/>
       <c r="V5" s="12">
-        <v>-9.8000000000000007</v>
+        <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
@@ -828,7 +828,7 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="12">
-        <v>-2.6</v>
+        <v>2.6</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="12">
@@ -842,11 +842,11 @@
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="12">
-        <v>-2.2999999999999998</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="12">
-        <v>-2.7</v>
+        <v>2.7</v>
       </c>
       <c r="U8" s="4"/>
       <c r="V8" s="2"/>
@@ -898,7 +898,7 @@
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="12">
-        <v>-2.8</v>
+        <v>2.8</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="12">
@@ -961,7 +961,7 @@
         <v>10</v>
       </c>
       <c r="G12" s="12">
-        <v>-7.7</v>
+        <v>7.7</v>
       </c>
       <c r="H12" s="12">
         <v>5</v>
@@ -1059,7 +1059,7 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="G15" s="8">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="H15" s="8">
         <f t="shared" ref="H15:H23" si="2">+-2</f>
@@ -1112,7 +1112,7 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="G16" s="8">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="H16" s="8">
         <f t="shared" si="2"/>
@@ -1134,31 +1134,31 @@
       <c r="M16" s="8">
         <v>3</v>
       </c>
-      <c r="P16" s="3">
-        <v>-4</v>
-      </c>
-      <c r="Q16" s="6">
-        <v>-4</v>
-      </c>
-      <c r="R16" s="6">
-        <v>-4</v>
+      <c r="P16" s="8">
+        <v>-5</v>
+      </c>
+      <c r="Q16" s="8">
+        <v>-5</v>
+      </c>
+      <c r="R16" s="8">
+        <v>-5</v>
       </c>
       <c r="S16" s="8">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="T16" s="8">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="U16" s="8">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="V16" s="8">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="17" spans="7:22" x14ac:dyDescent="0.25">
       <c r="G17" s="8">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="H17" s="8">
         <f t="shared" si="2"/>
@@ -1180,31 +1180,31 @@
       <c r="M17" s="8">
         <v>3</v>
       </c>
-      <c r="P17" s="8">
-        <v>-5</v>
-      </c>
-      <c r="Q17" s="8">
-        <v>-5</v>
-      </c>
-      <c r="R17" s="8">
-        <v>-5</v>
+      <c r="P17" s="3">
+        <v>-4</v>
+      </c>
+      <c r="Q17" s="6">
+        <v>-4</v>
+      </c>
+      <c r="R17" s="6">
+        <v>-4</v>
       </c>
       <c r="S17" s="8">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="T17" s="8">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="U17" s="8">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="V17" s="8">
-        <v>-5</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="18" spans="7:22" x14ac:dyDescent="0.25">
       <c r="G18" s="8">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="H18" s="8">
         <f t="shared" si="2"/>
@@ -1250,7 +1250,7 @@
     </row>
     <row r="19" spans="7:22" x14ac:dyDescent="0.25">
       <c r="G19" s="8">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="H19" s="8">
         <f t="shared" si="2"/>
@@ -1296,7 +1296,7 @@
     </row>
     <row r="20" spans="7:22" x14ac:dyDescent="0.25">
       <c r="G20" s="8">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="H20" s="8">
         <f t="shared" si="2"/>
@@ -1342,7 +1342,7 @@
     </row>
     <row r="21" spans="7:22" x14ac:dyDescent="0.25">
       <c r="G21" s="8">
-        <v>4</v>
+        <v>-3</v>
       </c>
       <c r="H21" s="8">
         <f t="shared" si="2"/>
@@ -1388,7 +1388,7 @@
     </row>
     <row r="22" spans="7:22" x14ac:dyDescent="0.25">
       <c r="G22" s="8">
-        <v>5</v>
+        <v>-3</v>
       </c>
       <c r="H22" s="8">
         <f t="shared" si="2"/>
@@ -1434,7 +1434,7 @@
     </row>
     <row r="23" spans="7:22" x14ac:dyDescent="0.25">
       <c r="G23" s="8">
-        <v>6</v>
+        <v>-3</v>
       </c>
       <c r="H23" s="8">
         <f t="shared" si="2"/>

--- a/geometryVelocity.xlsx
+++ b/geometryVelocity.xlsx
@@ -500,8 +500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16:V16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -981,7 +981,7 @@
         <v>10</v>
       </c>
       <c r="P12" s="12">
-        <v>12.3</v>
+        <v>7.8</v>
       </c>
       <c r="Q12" s="12">
         <v>8</v>
@@ -995,7 +995,7 @@
         <v>7.9</v>
       </c>
       <c r="V12" s="12">
-        <v>12.4</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">

--- a/geometryVelocity.xlsx
+++ b/geometryVelocity.xlsx
@@ -501,7 +501,7 @@
   <dimension ref="A1:V23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="V12" sqref="V12"/>
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -981,21 +981,21 @@
         <v>10</v>
       </c>
       <c r="P12" s="12">
-        <v>7.8</v>
+        <v>12.3</v>
       </c>
       <c r="Q12" s="12">
-        <v>8</v>
+        <v>12.6</v>
       </c>
       <c r="R12" s="4"/>
       <c r="S12" s="12">
-        <v>8</v>
+        <v>12.6</v>
       </c>
       <c r="T12" s="4"/>
       <c r="U12" s="12">
-        <v>7.9</v>
+        <v>12.5</v>
       </c>
       <c r="V12" s="12">
-        <v>7.8</v>
+        <v>12.4</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
